--- a/Slope_Volumes.xlsx
+++ b/Slope_Volumes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/860d099f4eb81d8c/Courses/Bio381/Estabrook_Bio381/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF4F943F-6C9A-49E9-ACC9-9D02D452F1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{EF4F943F-6C9A-49E9-ACC9-9D02D452F1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE1C4A69-6C09-453E-92F1-961EFC31944C}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22092" windowHeight="8964" xr2:uid="{F969D067-2056-48F6-882C-EEAF5DBBAAD1}"/>
+    <workbookView xWindow="948" yWindow="3396" windowWidth="22092" windowHeight="8964" xr2:uid="{F969D067-2056-48F6-882C-EEAF5DBBAAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Volume (m^3)</t>
-  </si>
-  <si>
     <t>Site ID</t>
   </si>
   <si>
-    <t>Slope (%)</t>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Slope</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,10 +450,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
